--- a/medicine/Psychotrope/Privatbrauerei_Wittingen/Privatbrauerei_Wittingen.xlsx
+++ b/medicine/Psychotrope/Privatbrauerei_Wittingen/Privatbrauerei_Wittingen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Privatbrauerei Wittingen est une brasserie à Wittingen.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'histoire qu'elle présente, la brasserie date de 1429 et a toujours appartenu à la famille Stackmann[1], elle est donc l'une des plus anciennes brasseries privées en Allemagne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'histoire qu'elle présente, la brasserie date de 1429 et a toujours appartenu à la famille Stackmann, elle est donc l'une des plus anciennes brasseries privées en Allemagne.
 Depuis 2004, une fête de la bière a lieu chaque année à Wittingen. Sa réputation régionale lui permet d'être un sponsor des Grizzlys Wolfsbourg.
-Lors de la réunion des créanciers de Privatbrauerei Herrenhausen le 20 octobre 2010, ils décident de la vendre à Privatbrauerei Wittingen[2].
+Lors de la réunion des créanciers de Privatbrauerei Herrenhausen le 20 octobre 2010, ils décident de la vendre à Privatbrauerei Wittingen.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wittinger Premium
 Wittinger Pilsner
